--- a/Documentation/Reports and Papers/Knee_Torque_Test/Tables/CoefficientTable.xlsx
+++ b/Documentation/Reports and Papers/Knee_Torque_Test/Tables/CoefficientTable.xlsx
@@ -1,33 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Documentation\Reports and Papers\Knee_Torque_Test\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Documentation\Reports and Papers\Knee_Torque_Test\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFF581F-96AC-4F26-A7F5-D62A61C7BC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CA5123-B513-44E4-ADB1-907667487E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coefficient table" sheetId="4" r:id="rId1"/>
     <sheet name="F_rel" sheetId="2" r:id="rId2"/>
     <sheet name="Fmax" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="93">
   <si>
     <t>Equation</t>
   </si>
@@ -222,67 +233,67 @@
     <t>\ref{eq:exp10mm}, Experiment data</t>
   </si>
   <si>
-    <t>\ref{eq:exp10mm}, Festo data</t>
-  </si>
-  <si>
-    <t>(-0.3935, -0.3471)</t>
-  </si>
-  <si>
-    <t>(5.823, 6.628)</t>
-  </si>
-  <si>
-    <t>(0.3667, 0.4188)</t>
-  </si>
-  <si>
-    <t>(0.9876, 1.136)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (0.9493, 0.9777)</t>
-  </si>
-  <si>
-    <t>5.87\%</t>
-  </si>
-  <si>
-    <t>19.00\%</t>
-  </si>
-  <si>
-    <t>Largest residual</t>
-  </si>
-  <si>
-    <t>18.7\%</t>
-  </si>
-  <si>
-    <t>(1, 1.02)</t>
-  </si>
-  <si>
-    <t>(0.433, 0.575)</t>
-  </si>
-  <si>
-    <t>(0.5582, 0.6537)</t>
-  </si>
-  <si>
-    <t>(3.164, 4.063)</t>
-  </si>
-  <si>
-    <t>(-0.6661, -0.5694)</t>
-  </si>
-  <si>
-    <t>6.2\%</t>
-  </si>
-  <si>
-    <t>(-0.1994, -0.1834)</t>
-  </si>
-  <si>
-    <t>(7.564, 8.099)</t>
-  </si>
-  <si>
-    <t>(0.1834, 0.2022)</t>
-  </si>
-  <si>
-    <t>(1.289, 1.392)</t>
-  </si>
-  <si>
-    <t>(1.026, 1.043)</t>
+    <t>a_1 = 301.6 N</t>
+  </si>
+  <si>
+    <t>a_2 = 20.5 m^-1</t>
+  </si>
+  <si>
+    <t>$a_1 = \qty{1.50}{\N\per\kPa}$</t>
+  </si>
+  <si>
+    <t>$a_2=\qty{0.0228}{\per\kPa\per\m}$</t>
+  </si>
+  <si>
+    <t>(0.02187, 0.02368)</t>
+  </si>
+  <si>
+    <t>(1.487, 1.515)</t>
+  </si>
+  <si>
+    <t>CI (95\%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \ref{eq:exp10mm}, Festo data</t>
+  </si>
+  <si>
+    <t>(-0.4152, -0.3672)</t>
+  </si>
+  <si>
+    <t>(5.959, 6.87)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0.3596, 0.4179)</t>
+  </si>
+  <si>
+    <t>(0.9786, 1.139)</t>
+  </si>
+  <si>
+    <t>b_0 = -0.3912</t>
+  </si>
+  <si>
+    <t>b_1 = 6.415</t>
+  </si>
+  <si>
+    <t>b_2 = 0.3887</t>
+  </si>
+  <si>
+    <t>b_3 = 1.059</t>
+  </si>
+  <si>
+    <t>Max. Error</t>
+  </si>
+  <si>
+    <t>Adj. R^2</t>
+  </si>
+  <si>
+    <t>6.7\%</t>
+  </si>
+  <si>
+    <t>6.5\%</t>
+  </si>
+  <si>
+    <t>Max. Error (N)</t>
   </si>
   <si>
     <r>
@@ -290,10 +301,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="6"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>−1</t>
     </r>
@@ -304,107 +316,78 @@
     </r>
     <r>
       <rPr>
-        <sz val="6"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">−1 </t>
+      <t>−1 m−1</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>−1</t>
-    </r>
-  </si>
-  <si>
-    <t>a_1 = 301.6 N</t>
-  </si>
-  <si>
-    <t>a_2 = 20.5 m^-1</t>
-  </si>
-  <si>
-    <t>$a_1 = \qty{1.50}{\N\per\kPa}$</t>
-  </si>
-  <si>
-    <t>$a_2=\qty{0.0228}{\per\kPa\per\m}$</t>
-  </si>
-  <si>
-    <t>(0.02187, 0.02368)</t>
-  </si>
-  <si>
-    <t>(1.487, 1.515)</t>
-  </si>
-  <si>
-    <t>b_0 = -0.3703</t>
-  </si>
-  <si>
-    <t>b_1 = 6.225</t>
-  </si>
-  <si>
-    <t>b_2 = 0.3928</t>
-  </si>
-  <si>
-    <t>b_3 = 1.062</t>
-  </si>
-  <si>
-    <t>b_4 = 0.9635</t>
-  </si>
-  <si>
-    <t>b_0 = -0.6178</t>
-  </si>
-  <si>
-    <t>b_1 = 3.614</t>
-  </si>
-  <si>
-    <t>b_2 = 0.606</t>
-  </si>
-  <si>
-    <t>b_3 = 0.504</t>
-  </si>
-  <si>
-    <t>b_4 = 1.01</t>
-  </si>
-  <si>
-    <t>b_0 = -0.1914</t>
-  </si>
-  <si>
-    <t>b_1 = 7.832</t>
-  </si>
-  <si>
-    <t>b_2 = 0.1928</t>
-  </si>
-  <si>
-    <t>b_3 = 1.341</t>
-  </si>
-  <si>
-    <t>b_4 = 1.034</t>
-  </si>
-  <si>
-    <t>CI (95\%)</t>
-  </si>
-  <si>
-    <t>20.1\%</t>
+  </si>
+  <si>
+    <t>16.0\%</t>
+  </si>
+  <si>
+    <t>b_0 = -0.6144</t>
+  </si>
+  <si>
+    <t>b_1 = 3.559</t>
+  </si>
+  <si>
+    <t>b_2 = 0.6111</t>
+  </si>
+  <si>
+    <t>b_3 = 0.4963</t>
+  </si>
+  <si>
+    <t>14.9\%</t>
+  </si>
+  <si>
+    <t>18.9\%</t>
+  </si>
+  <si>
+    <t>(-0.6645, -0.5642)</t>
+  </si>
+  <si>
+    <t>(3.109, 4.009)</t>
+  </si>
+  <si>
+    <t>(0.5613, 0.6609)</t>
+  </si>
+  <si>
+    <t>(0.4218, 0.5708)</t>
+  </si>
+  <si>
+    <t>b_0 = -0.1838</t>
+  </si>
+  <si>
+    <t>b_1 = 8.734</t>
+  </si>
+  <si>
+    <t>b_2 = 0.1806</t>
+  </si>
+  <si>
+    <t>b_3 = 1.627</t>
+  </si>
+  <si>
+    <t>(-0.1941, -0.1735)</t>
+  </si>
+  <si>
+    <t>(8.311, 9.158)</t>
+  </si>
+  <si>
+    <t>(0.168, 0.1931)</t>
+  </si>
+  <si>
+    <t>(1.539, 1.715)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,6 +415,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -542,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -551,20 +541,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -575,24 +586,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -601,24 +594,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -905,73 +885,73 @@
       <selection sqref="A1:H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="12" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="20" t="s">
+    <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="9">
         <v>0.99970000000000003</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="12">
         <v>733.2</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="9">
         <v>2.7490000000000001</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -981,13 +961,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
       <c r="G4" s="5" t="s">
         <v>7</v>
       </c>
@@ -995,23 +975,23 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="12">
         <v>0.98199999999999998</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="12">
         <v>5941</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="12">
         <v>14.83</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -1021,13 +1001,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
       <c r="G6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1035,23 +1015,23 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="15">
         <v>0.99980000000000002</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="15">
         <v>7.8329999999999997E-3</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="15">
         <v>5.666E-3</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="15">
         <v>0.482595</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="15">
         <v>4.4291999999999998E-2</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -1061,13 +1041,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1075,23 +1055,23 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="9">
         <v>0.99850000000000005</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="9">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="9">
         <v>1.54E-2</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -1101,13 +1081,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
@@ -1115,13 +1095,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1129,13 +1109,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="2" t="s">
         <v>21</v>
       </c>
@@ -1143,13 +1123,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1157,23 +1137,23 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="9">
         <v>0.99990000000000001</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="9">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -1183,13 +1163,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="2" t="s">
         <v>26</v>
       </c>
@@ -1197,13 +1177,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="2" t="s">
         <v>28</v>
       </c>
@@ -1211,13 +1191,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="2" t="s">
         <v>30</v>
       </c>
@@ -1225,13 +1205,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="2" t="s">
         <v>32</v>
       </c>
@@ -1239,13 +1219,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
       <c r="G19" s="3" t="s">
         <v>34</v>
       </c>
@@ -1255,23 +1235,11 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="E14:E19"/>
-    <mergeCell ref="F14:F19"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="F9:F13"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="A5:A6"/>
@@ -1280,16 +1248,28 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F14:F19"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="E14:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1298,393 +1278,318 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248EE269-D9C6-4699-8B6A-E13E54F18600}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="12" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="24" t="s">
+      <c r="H1" s="20"/>
+      <c r="I1" s="21"/>
+    </row>
+    <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="24"/>
-    </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="29" t="s">
+      <c r="D3" s="9">
+        <v>0.99429999999999996</v>
+      </c>
+      <c r="E3" s="9">
+        <v>2.7859999999999999E-2</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="H3" s="12">
+        <v>4.9889999999999997E-2</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
+      <c r="B4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="23"/>
+      <c r="B5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
+      <c r="B6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.99370000000000003</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2.7439999999999999E-2</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0.97950000000000004</v>
+      </c>
+      <c r="H7" s="12">
+        <v>5.8360000000000002E-2</v>
+      </c>
+      <c r="I7" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="15">
-        <v>0.99570000000000003</v>
-      </c>
-      <c r="E3" s="15">
-        <v>6.6549999999999998E-2</v>
-      </c>
-      <c r="F3" s="15">
-        <v>2.4060000000000002E-2</v>
-      </c>
-      <c r="G3" s="9">
-        <v>1.47532</v>
-      </c>
-      <c r="H3" s="9">
-        <v>5.1981300000000001E-2</v>
-      </c>
-      <c r="I3" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" s="26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="29" t="s">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="23"/>
+      <c r="B8" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="29" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="23"/>
+      <c r="B9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="29" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="24"/>
+      <c r="B10" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="29" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="15">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="E8" s="15">
-        <v>0.40960000000000002</v>
-      </c>
-      <c r="F8" s="15">
-        <v>2.7519999999999999E-2</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0.42347400000000002</v>
-      </c>
-      <c r="H8" s="9">
-        <v>5.9404899999999997E-2</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="29" t="s">
+      <c r="C11" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1.4080000000000001E-2</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="29" t="s">
+      <c r="C12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="29" t="s">
+      <c r="C13" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="15">
-        <v>0.99939999999999996</v>
-      </c>
-      <c r="E13" s="15">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="F13" s="15">
-        <v>1.0290000000000001E-2</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" s="27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="27"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="29" t="s">
+      <c r="C14" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="27"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="27"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="27"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="I13:I17"/>
-    <mergeCell ref="J13:J17"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="I8:I12"/>
-    <mergeCell ref="J8:J12"/>
-    <mergeCell ref="E13:E17"/>
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="G13:G17"/>
-    <mergeCell ref="H13:H17"/>
+  <mergeCells count="26">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G1:I1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="G8:G12"/>
-    <mergeCell ref="H8:H12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="I3:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1696,161 +1601,155 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="F7" sqref="F7:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="20" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="F2" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="9">
         <v>0.99970000000000003</v>
       </c>
-      <c r="C3" s="9">
-        <v>733.2</v>
-      </c>
-      <c r="D3" s="15">
+      <c r="E3" s="9">
         <v>2.7490000000000001</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="5" t="s">
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="12">
         <v>0.98199999999999998</v>
       </c>
-      <c r="C5" s="9">
-        <v>5941</v>
-      </c>
-      <c r="D5" s="9">
+      <c r="E5" s="12">
         <v>14.83</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="15">
         <v>0.99439999999999995</v>
       </c>
-      <c r="C7" s="18">
-        <v>7.8329999999999997E-3</v>
-      </c>
-      <c r="D7" s="18">
+      <c r="E7" s="15">
         <v>24.22</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
+      <c r="B8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/Reports and Papers/Knee_Torque_Test/Tables/CoefficientTable.xlsx
+++ b/Documentation/Reports and Papers/Knee_Torque_Test/Tables/CoefficientTable.xlsx
@@ -5,33 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Documentation\Reports and Papers\Knee_Torque_Test\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Documentation\Reports and Papers\Knee_Torque_Test\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CA5123-B513-44E4-ADB1-907667487E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01D3D5A-F6AF-4F04-A834-73FCD784F9A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coefficient table" sheetId="4" r:id="rId1"/>
     <sheet name="F_rel" sheetId="2" r:id="rId2"/>
     <sheet name="Fmax" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -329,36 +318,6 @@
     <t>16.0\%</t>
   </si>
   <si>
-    <t>b_0 = -0.6144</t>
-  </si>
-  <si>
-    <t>b_1 = 3.559</t>
-  </si>
-  <si>
-    <t>b_2 = 0.6111</t>
-  </si>
-  <si>
-    <t>b_3 = 0.4963</t>
-  </si>
-  <si>
-    <t>14.9\%</t>
-  </si>
-  <si>
-    <t>18.9\%</t>
-  </si>
-  <si>
-    <t>(-0.6645, -0.5642)</t>
-  </si>
-  <si>
-    <t>(3.109, 4.009)</t>
-  </si>
-  <si>
-    <t>(0.5613, 0.6609)</t>
-  </si>
-  <si>
-    <t>(0.4218, 0.5708)</t>
-  </si>
-  <si>
     <t>b_0 = -0.1838</t>
   </si>
   <si>
@@ -381,13 +340,43 @@
   </si>
   <si>
     <t>(1.539, 1.715)</t>
+  </si>
+  <si>
+    <t>21.7\%</t>
+  </si>
+  <si>
+    <t>18\%</t>
+  </si>
+  <si>
+    <t>b_0 = -0.6758</t>
+  </si>
+  <si>
+    <t>b_1 = 3.12</t>
+  </si>
+  <si>
+    <t>b_2 = 0.6692</t>
+  </si>
+  <si>
+    <t>b_3 = 0.4093</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-0.7165, -0.6351)</t>
+  </si>
+  <si>
+    <t>(2.842, 3.397)</t>
+  </si>
+  <si>
+    <t>(0.6287, 0.7096)</t>
+  </si>
+  <si>
+    <t>(0.3569, 0.4617)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,13 +404,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -532,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -546,43 +528,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -594,11 +579,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -885,38 +865,38 @@
       <selection sqref="A1:H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="19" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="17" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
+    <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
       <c r="B2" s="7" t="s">
         <v>10</v>
       </c>
@@ -932,26 +912,26 @@
       <c r="F2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="18">
         <v>0.99970000000000003</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="16">
         <v>733.2</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="18">
         <v>2.7490000000000001</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -961,13 +941,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="5" t="s">
         <v>7</v>
       </c>
@@ -975,23 +955,23 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="16">
         <v>0.98199999999999998</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="16">
         <v>5941</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="16">
         <v>14.83</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="16" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -1001,13 +981,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
       <c r="G6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1015,23 +995,23 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>0.99980000000000002</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>7.8329999999999997E-3</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>5.666E-3</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>0.482595</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>4.4291999999999998E-2</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -1041,13 +1021,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1055,23 +1035,23 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="18">
         <v>0.99850000000000005</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="18">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="18">
         <v>1.54E-2</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="16" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -1081,13 +1061,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
@@ -1095,13 +1075,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1109,13 +1089,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="2" t="s">
         <v>21</v>
       </c>
@@ -1123,13 +1103,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1137,23 +1117,23 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="18">
         <v>0.99990000000000001</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="18">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="16" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -1163,13 +1143,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="2" t="s">
         <v>26</v>
       </c>
@@ -1177,13 +1157,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="2" t="s">
         <v>28</v>
       </c>
@@ -1191,13 +1171,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
       <c r="G17" s="2" t="s">
         <v>30</v>
       </c>
@@ -1205,13 +1185,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
       <c r="G18" s="2" t="s">
         <v>32</v>
       </c>
@@ -1219,13 +1199,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
       <c r="G19" s="3" t="s">
         <v>34</v>
       </c>
@@ -1235,11 +1215,20 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F14:F19"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="E14:E19"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="A5:A6"/>
@@ -1256,20 +1245,11 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F14:F19"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="F9:F13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1280,47 +1260,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248EE269-D9C6-4699-8B6A-E13E54F18600}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="19" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21"/>
-    </row>
-    <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="7" t="s">
         <v>68</v>
       </c>
@@ -1340,8 +1320,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>58</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1350,220 +1330,233 @@
       <c r="C3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="18">
         <v>0.99429999999999996</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="18">
         <v>2.7859999999999999E-2</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="12">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="H3" s="12">
+      <c r="G3" s="16">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="H3" s="16">
         <v>4.9889999999999997E-2</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
       <c r="B4" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
       <c r="B5" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
       <c r="B6" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
         <v>50</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="18">
+        <v>0.99280000000000002</v>
+      </c>
+      <c r="E7" s="18">
+        <v>2.93E-2</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0.97440000000000004</v>
+      </c>
+      <c r="H7" s="16">
+        <v>6.7349999999999993E-2</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="18">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="E11" s="18">
+        <v>1.4080000000000001E-2</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="9">
-        <v>0.99370000000000003</v>
-      </c>
-      <c r="E7" s="9">
-        <v>2.7439999999999999E-2</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7" s="12">
-        <v>0.97950000000000004</v>
-      </c>
-      <c r="H7" s="12">
-        <v>5.8360000000000002E-2</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
-      <c r="B9" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="9">
-        <v>0.99880000000000002</v>
-      </c>
-      <c r="E11" s="9">
-        <v>1.4080000000000001E-2</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="D11:D14"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="F3:F6"/>
     <mergeCell ref="F7:F10"/>
@@ -1572,24 +1565,11 @@
     <mergeCell ref="G3:G6"/>
     <mergeCell ref="E3:E6"/>
     <mergeCell ref="H7:H10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="D11:D14"/>
     <mergeCell ref="E11:E14"/>
     <mergeCell ref="E7:E10"/>
     <mergeCell ref="G7:G10"/>
     <mergeCell ref="G11:G14"/>
     <mergeCell ref="H11:H14"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="I3:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1604,34 +1584,34 @@
       <selection activeCell="F7" sqref="F7:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="7" t="s">
         <v>68</v>
       </c>
@@ -1642,38 +1622,38 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="18">
         <v>0.99970000000000003</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="18">
         <v>2.7490000000000001</v>
       </c>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="27" t="s">
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1682,28 +1662,28 @@
       <c r="C5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="16">
         <v>0.98199999999999998</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="16">
         <v>14.83</v>
       </c>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
       <c r="B6" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1712,28 +1692,36 @@
       <c r="C7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>0.99439999999999995</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>24.22</v>
       </c>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
       <c r="B8" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="B1:B2"/>
@@ -1742,14 +1730,6 @@
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/Reports and Papers/Knee_Torque_Test/Tables/CoefficientTable.xlsx
+++ b/Documentation/Reports and Papers/Knee_Torque_Test/Tables/CoefficientTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Documentation\Reports and Papers\Knee_Torque_Test\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01D3D5A-F6AF-4F04-A834-73FCD784F9A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3733BDFB-5B71-4CA1-9251-055B1BD72E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21000" yWindow="1260" windowWidth="13455" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coefficient table" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="98">
   <si>
     <t>Equation</t>
   </si>
@@ -222,12 +222,6 @@
     <t>\ref{eq:exp10mm}, Experiment data</t>
   </si>
   <si>
-    <t>a_1 = 301.6 N</t>
-  </si>
-  <si>
-    <t>a_2 = 20.5 m^-1</t>
-  </si>
-  <si>
     <t>$a_1 = \qty{1.50}{\N\per\kPa}$</t>
   </si>
   <si>
@@ -285,36 +279,6 @@
     <t>Max. Error (N)</t>
   </si>
   <si>
-    <r>
-      <t>a_1 = 0.4864 N kPa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>−1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>a_2 = 0.033 06 kPa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>−1 m−1</t>
-    </r>
-  </si>
-  <si>
     <t>16.0\%</t>
   </si>
   <si>
@@ -370,6 +334,33 @@
   </si>
   <si>
     <t>(0.3569, 0.4617)</t>
+  </si>
+  <si>
+    <t>(297.4, 309.8)</t>
+  </si>
+  <si>
+    <t>(17.11, 21.74)</t>
+  </si>
+  <si>
+    <t>a_2 = 19.43 m^-1</t>
+  </si>
+  <si>
+    <t>a_1 = 303.6 N</t>
+  </si>
+  <si>
+    <t>no robustness</t>
+  </si>
+  <si>
+    <t>a_1 = 0.4741N kPa−1</t>
+  </si>
+  <si>
+    <t>a_2 = 0.03896 kPa−1 m−1</t>
+  </si>
+  <si>
+    <t>(0.4674, 0.4808)</t>
+  </si>
+  <si>
+    <t>(0.0362, 0.04172)</t>
   </si>
 </sst>
 </file>
@@ -861,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFED512C-20B1-4472-8C7D-BFE8EE5F9AB6}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1260,7 +1251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248EE269-D9C6-4699-8B6A-E13E54F18600}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -1284,7 +1275,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>42</v>
@@ -1302,33 +1293,33 @@
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D3" s="18">
         <v>0.99429999999999996</v>
@@ -1337,7 +1328,7 @@
         <v>2.7859999999999999E-2</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G3" s="16">
         <v>0.98299999999999998</v>
@@ -1346,16 +1337,16 @@
         <v>4.9889999999999997E-2</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -1367,10 +1358,10 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -1382,10 +1373,10 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -1399,10 +1390,10 @@
         <v>50</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="D7" s="18">
         <v>0.99280000000000002</v>
@@ -1411,7 +1402,7 @@
         <v>2.93E-2</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G7" s="16">
         <v>0.97440000000000004</v>
@@ -1420,16 +1411,16 @@
         <v>6.7349999999999993E-2</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -1441,10 +1432,10 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -1456,10 +1447,10 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
@@ -1473,10 +1464,10 @@
         <v>37</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="D11" s="18">
         <v>0.99880000000000002</v>
@@ -1485,7 +1476,7 @@
         <v>1.4080000000000001E-2</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>5</v>
@@ -1500,10 +1491,10 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
@@ -1515,10 +1506,10 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
@@ -1530,10 +1521,10 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
@@ -1578,10 +1569,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63494E59-DB24-4854-848F-7E392F2629DB}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,7 +1583,7 @@
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1608,89 +1599,96 @@
       <c r="E1" s="12"/>
       <c r="F1" s="13"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="D3" s="18">
-        <v>0.99970000000000003</v>
+        <v>0.99280000000000002</v>
       </c>
       <c r="E3" s="18">
-        <v>2.7490000000000001</v>
-      </c>
-      <c r="F3" s="18"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12.89</v>
+      </c>
+      <c r="F3" s="18">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="3" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="D5" s="16">
-        <v>0.98199999999999998</v>
+        <v>0.98319999999999996</v>
       </c>
       <c r="E5" s="16">
-        <v>14.83</v>
-      </c>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14.61</v>
+      </c>
+      <c r="F5" s="16">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="3" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" s="14">
         <v>0.99439999999999995</v>
@@ -1700,13 +1698,13 @@
       </c>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>

--- a/Documentation/Reports and Papers/Knee_Torque_Test/Tables/CoefficientTable.xlsx
+++ b/Documentation/Reports and Papers/Knee_Torque_Test/Tables/CoefficientTable.xlsx
@@ -1,33 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Documentation\Reports and Papers\Knee_Torque_Test\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F28847-0429-4A14-A2BA-5B5279630988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87E6E40-6332-4269-B9B8-801241C169CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30975" yWindow="2955" windowWidth="16320" windowHeight="8985" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coefficient table" sheetId="4" r:id="rId1"/>
     <sheet name="F_rel" sheetId="2" r:id="rId2"/>
     <sheet name="Fmax" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="109">
   <si>
     <t>Equation</t>
   </si>
@@ -224,17 +235,143 @@
     <t>$a_1 = \qty{0.4909}{\N\per\kPa}$</t>
   </si>
   <si>
-    <t>(17.44, 21.88)</t>
-  </si>
-  <si>
-    <t>(0.02138, 0.02337)</t>
+    <t>$b_0 = -0.2404$</t>
+  </si>
+  <si>
+    <t>$b_1 = 7.047$</t>
+  </si>
+  <si>
+    <t>$b_2 = 1.412$</t>
+  </si>
+  <si>
+    <t>$b_1 = 10.83$</t>
+  </si>
+  <si>
+    <t>$b_2 = 2.141$</t>
+  </si>
+  <si>
+    <t>$b_0 = -0.119$</t>
+  </si>
+  <si>
+    <t>$b_0 = -0.4039$</t>
+  </si>
+  <si>
+    <t>$b_1 = 6.269$</t>
+  </si>
+  <si>
+    <t>$b_2 = 0.9842$</t>
+  </si>
+  <si>
+    <t>$b_0 = -0.5756$</t>
+  </si>
+  <si>
+    <t>$b_1 = 4.085$</t>
+  </si>
+  <si>
+    <t>$b_2 = 0.5497$</t>
+  </si>
+  <si>
+    <t>\ref{eq:exp20mm}, Festo data</t>
+  </si>
+  <si>
+    <t>\ref{eq:exp20mm}, Experiment data</t>
+  </si>
+  <si>
+    <t>*Bisquare</t>
+  </si>
+  <si>
+    <t>$b_0 = -0.2604$</t>
+  </si>
+  <si>
+    <t>$b_1 = 6.692$</t>
+  </si>
+  <si>
+    <t>$b_2 = 1.294$</t>
+  </si>
+  <si>
+    <t>(1.22, 1.368)</t>
+  </si>
+  <si>
+    <t>(5.84, 7.544)</t>
+  </si>
+  <si>
+    <t>(-0.2765, -0.2443)</t>
+  </si>
+  <si>
+    <t>6.8\%</t>
+  </si>
+  <si>
+    <t>6.6\%</t>
+  </si>
+  <si>
+    <t>6.5\%</t>
+  </si>
+  <si>
+    <t>*Bisquare (best results with robust off though)</t>
+  </si>
+  <si>
+    <t>$a_2=\qty{14.12}{\per\m}$</t>
+  </si>
+  <si>
+    <t>$a_1 = \qty{930.6}{\N}$</t>
+  </si>
+  <si>
+    <t>(921.9, 939.3)</t>
+  </si>
+  <si>
+    <t>(13.56, 14.68)</t>
+  </si>
+  <si>
+    <t>24.22N</t>
+  </si>
+  <si>
+    <t>77.7 N</t>
+  </si>
+  <si>
+    <t>*No robustness</t>
+  </si>
+  <si>
+    <t>$a_1 = \qty{0.4895}{\N\per\kPa}$</t>
+  </si>
+  <si>
+    <t>$a_2 = \qty{0.03068}{\per\kPa\per\m}$</t>
+  </si>
+  <si>
+    <t>14.72 N</t>
+  </si>
+  <si>
+    <t>30.9 N</t>
+  </si>
+  <si>
+    <t>$a_1 =\qty{303.5}{\N}$</t>
+  </si>
+  <si>
+    <t>$a_2 = \qty{19.03}{\per\m}$</t>
+  </si>
+  <si>
+    <t>(0.4822, 0.4968)</t>
+  </si>
+  <si>
+    <t>(0.0282, 0.03317)</t>
+  </si>
+  <si>
+    <t>(300, 308)</t>
+  </si>
+  <si>
+    <t>(17.48, 20.57)</t>
+  </si>
+  <si>
+    <t>11.61 N</t>
+  </si>
+  <si>
+    <t>53.9 N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,6 +386,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -357,8 +500,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -374,6 +518,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -381,6 +543,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -398,6 +563,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -410,73 +584,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Fmax" xfId="1" xr:uid="{02802CF4-311D-4E67-98FF-41FA9D5DC37E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -773,30 +920,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="17" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="19"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
@@ -817,7 +964,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -826,42 +973,42 @@
       <c r="C3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="16">
         <v>0.98319999999999996</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="16">
         <v>13.62</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -870,42 +1017,42 @@
       <c r="C5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="19">
         <v>0.98680000000000001</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="13">
         <v>0.92200000000000004</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
     </row>
     <row r="7" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -914,42 +1061,42 @@
       <c r="C7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="13">
         <v>0.99270000000000003</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="I7" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -958,57 +1105,57 @@
       <c r="C9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="19">
         <v>0.99450000000000005</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="19">
         <v>2.657E-2</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="16">
         <v>0.98260000000000003</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="16">
         <v>4.65E-2</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="22" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1017,57 +1164,57 @@
       <c r="C12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="19">
         <v>0.99580000000000002</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="19">
         <v>2.2679999999999999E-2</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="16">
         <v>0.98839999999999995</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="16">
         <v>3.8739999999999997E-2</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
     </row>
     <row r="15" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1076,57 +1223,57 @@
       <c r="C15" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="19">
         <v>0.99590000000000001</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="19">
         <v>1.8380000000000001E-2</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
     </row>
     <row r="17" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1135,123 +1282,123 @@
       <c r="C18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="19">
         <v>0.98529999999999995</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="19">
         <v>3.7539999999999997E-2</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
     </row>
     <row r="20" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
     <mergeCell ref="H18:H20"/>
     <mergeCell ref="I18:I20"/>
     <mergeCell ref="A15:A17"/>
@@ -1259,37 +1406,27 @@
     <mergeCell ref="E15:E17"/>
     <mergeCell ref="F15:F17"/>
     <mergeCell ref="G15:G17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="I9:I11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:G14"/>
     <mergeCell ref="H12:H14"/>
     <mergeCell ref="I12:I14"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1298,10 +1435,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248EE269-D9C6-4699-8B6A-E13E54F18600}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1316,31 +1453,31 @@
     <col min="9" max="9" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="30" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="31"/>
+      <c r="H1" s="32"/>
       <c r="I1" s="33"/>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="6" t="s">
         <v>15</v>
       </c>
@@ -1360,249 +1497,339 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="19">
         <v>0.99450000000000005</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="19">
         <v>2.657E-2</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="16">
         <v>0.98260000000000003</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="16">
         <v>4.65E-2</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
+      <c r="J3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
       <c r="B4" s="5" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="24"/>
       <c r="B5" s="5" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+    </row>
+    <row r="6" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="19">
         <v>0.99580000000000002</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="19">
         <v>2.2679999999999999E-2</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="16">
         <v>0.98839999999999995</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="16">
         <v>3.8739999999999997E-2</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24"/>
       <c r="B8" s="5" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>5</v>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>77</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="19">
         <v>0.99590000000000001</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="19">
         <v>1.8380000000000001E-2</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
+      <c r="G9" s="16">
+        <v>0.99229999999999996</v>
+      </c>
+      <c r="H9" s="16">
+        <v>2.3480000000000001E-2</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
       <c r="B10" s="5" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21"/>
       <c r="B11" s="5" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+    </row>
+    <row r="12" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="19">
+        <v>0.99229999999999996</v>
+      </c>
+      <c r="E12" s="19">
+        <v>2.341E-2</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="16">
+        <v>0.99490000000000001</v>
+      </c>
+      <c r="H12" s="16">
+        <v>2.034E-2</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="20"/>
+      <c r="B13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21"/>
+      <c r="B14" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="B15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D15" s="19">
         <v>0.98529999999999995</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E15" s="19">
         <v>3.7539999999999997E-2</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F15" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G15" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H15" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I15" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
-      <c r="B13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="5" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
+      <c r="B16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="21"/>
+      <c r="B17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="F3:F5"/>
+  <mergeCells count="40">
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="I12:I14"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="D6:D8"/>
@@ -1611,26 +1838,11 @@
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A6:A8"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="F3:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1639,10 +1851,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63494E59-DB24-4854-848F-7E392F2629DB}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1654,31 +1866,31 @@
     <col min="9" max="9" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="30" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="31"/>
+      <c r="H1" s="32"/>
       <c r="I1" s="33"/>
     </row>
-    <row r="2" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
+    <row r="2" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="6" t="s">
         <v>15</v>
       </c>
@@ -1698,143 +1910,168 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="39">
+        <v>0.99439999999999995</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="39">
+        <v>0.98540000000000005</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="J3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="40"/>
+      <c r="B4" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+    </row>
+    <row r="5" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0.98319999999999996</v>
-      </c>
-      <c r="E3" s="9">
-        <v>13.62</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="40" t="s">
+      <c r="B5" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0.98450000000000004</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="I5" s="16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-    </row>
-    <row r="5" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="12">
-        <v>0.98680000000000001</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="34">
-        <v>0.92200000000000004</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-    </row>
-    <row r="7" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="J5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21"/>
+      <c r="B6" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="12">
-        <v>0.99270000000000003</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="40" t="s">
+      <c r="B7" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0.99439999999999995</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="H7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="40" t="s">
+      <c r="I7" s="16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
+      <c r="J7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="21"/>
+      <c r="B8" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
@@ -1842,22 +2079,6 @@
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/Reports and Papers/Knee_Torque_Test/Tables/CoefficientTable.xlsx
+++ b/Documentation/Reports and Papers/Knee_Torque_Test/Tables/CoefficientTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Documentation\Reports and Papers\Knee_Torque_Test\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87E6E40-6332-4269-B9B8-801241C169CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BB1159-722C-46B1-9D9A-6FBBAB96E689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30975" yWindow="2955" windowWidth="16320" windowHeight="8985" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coefficient table" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="119">
   <si>
     <t>Equation</t>
   </si>
@@ -253,24 +253,6 @@
     <t>$b_0 = -0.119$</t>
   </si>
   <si>
-    <t>$b_0 = -0.4039$</t>
-  </si>
-  <si>
-    <t>$b_1 = 6.269$</t>
-  </si>
-  <si>
-    <t>$b_2 = 0.9842$</t>
-  </si>
-  <si>
-    <t>$b_0 = -0.5756$</t>
-  </si>
-  <si>
-    <t>$b_1 = 4.085$</t>
-  </si>
-  <si>
-    <t>$b_2 = 0.5497$</t>
-  </si>
-  <si>
     <t>\ref{eq:exp20mm}, Festo data</t>
   </si>
   <si>
@@ -310,24 +292,6 @@
     <t>*Bisquare (best results with robust off though)</t>
   </si>
   <si>
-    <t>$a_2=\qty{14.12}{\per\m}$</t>
-  </si>
-  <si>
-    <t>$a_1 = \qty{930.6}{\N}$</t>
-  </si>
-  <si>
-    <t>(921.9, 939.3)</t>
-  </si>
-  <si>
-    <t>(13.56, 14.68)</t>
-  </si>
-  <si>
-    <t>24.22N</t>
-  </si>
-  <si>
-    <t>77.7 N</t>
-  </si>
-  <si>
     <t>*No robustness</t>
   </si>
   <si>
@@ -365,6 +329,72 @@
   </si>
   <si>
     <t>53.9 N</t>
+  </si>
+  <si>
+    <t>*LAR</t>
+  </si>
+  <si>
+    <t>14.4\%</t>
+  </si>
+  <si>
+    <t>$b_2 = 0.998$</t>
+  </si>
+  <si>
+    <t>(0.9238, 1.072)</t>
+  </si>
+  <si>
+    <t>(6.022, 6.943)</t>
+  </si>
+  <si>
+    <t>(-0.42, -0.3753)</t>
+  </si>
+  <si>
+    <t>$b_0 = -0.3976$</t>
+  </si>
+  <si>
+    <t>$b_1 = 6.482$</t>
+  </si>
+  <si>
+    <t>10.6\%</t>
+  </si>
+  <si>
+    <t>11.4\%</t>
+  </si>
+  <si>
+    <t>(4.043, 4.241)</t>
+  </si>
+  <si>
+    <t>(-0.5902, -0.5742)</t>
+  </si>
+  <si>
+    <t>(0.5235, 0.55)</t>
+  </si>
+  <si>
+    <t>$b_2 = 0.5368$</t>
+  </si>
+  <si>
+    <t>$b_1 = 4.142$</t>
+  </si>
+  <si>
+    <t>$b_0 = -0.5822$</t>
+  </si>
+  <si>
+    <t>$a_1 = \qty{922.4}{\N}$</t>
+  </si>
+  <si>
+    <t>$a_2=\qty{15.37}{\per\m}$</t>
+  </si>
+  <si>
+    <t>(14.75, 15.98)</t>
+  </si>
+  <si>
+    <t>(914.2, 930.7)</t>
+  </si>
+  <si>
+    <t>23.83N</t>
+  </si>
+  <si>
+    <t>62.1 N</t>
   </si>
 </sst>
 </file>
@@ -903,7 +933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFED512C-20B1-4472-8C7D-BFE8EE5F9AB6}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -1437,8 +1467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248EE269-D9C6-4699-8B6A-E13E54F18600}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F5"/>
+    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1502,40 +1532,40 @@
         <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="D3" s="19">
-        <v>0.99450000000000005</v>
+        <v>0.99480000000000002</v>
       </c>
       <c r="E3" s="19">
-        <v>2.657E-2</v>
+        <v>2.5829999999999999E-2</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>33</v>
       </c>
       <c r="G3" s="16">
-        <v>0.98260000000000003</v>
+        <v>0.98819999999999997</v>
       </c>
       <c r="H3" s="16">
-        <v>4.65E-2</v>
+        <v>3.8760000000000003E-2</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="J3" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
       <c r="B4" s="5" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
@@ -1547,10 +1577,10 @@
     <row r="5" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>
       <c r="B5" s="5" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -1564,40 +1594,40 @@
         <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="D6" s="19">
-        <v>0.99580000000000002</v>
+        <v>0.99980000000000002</v>
       </c>
       <c r="E6" s="19">
-        <v>2.2679999999999999E-2</v>
+        <v>4.5370000000000002E-3</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="G6" s="16">
-        <v>0.98839999999999995</v>
+        <v>0.98780000000000001</v>
       </c>
       <c r="H6" s="16">
-        <v>3.8739999999999997E-2</v>
+        <v>3.9660000000000001E-2</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23"/>
       <c r="B7" s="5" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
@@ -1609,10 +1639,10 @@
     <row r="8" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24"/>
       <c r="B8" s="5" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -1623,7 +1653,7 @@
     </row>
     <row r="9" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>65</v>
@@ -1647,7 +1677,7 @@
         <v>2.3480000000000001E-2</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1682,13 +1712,13 @@
     </row>
     <row r="12" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D12" s="19">
         <v>0.99229999999999996</v>
@@ -1697,7 +1727,7 @@
         <v>2.341E-2</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G12" s="16">
         <v>0.99490000000000001</v>
@@ -1706,19 +1736,19 @@
         <v>2.034E-2</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20"/>
       <c r="B13" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -1730,10 +1760,10 @@
     <row r="14" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21"/>
       <c r="B14" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
@@ -1854,7 +1884,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1915,40 +1945,40 @@
         <v>7</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D3" s="39">
         <v>0.99439999999999995</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="G3" s="39">
         <v>0.98540000000000005</v>
       </c>
       <c r="H3" s="39" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="J3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40"/>
       <c r="B4" s="37" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D4" s="40"/>
       <c r="E4" s="40"/>
@@ -1962,19 +1992,19 @@
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D5" s="16">
         <v>0.98450000000000004</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="G5" s="16" t="s">
         <v>4</v>
@@ -1986,16 +2016,16 @@
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21"/>
       <c r="B6" s="10" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -2009,19 +2039,19 @@
         <v>10</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="D7" s="19">
-        <v>0.99439999999999995</v>
+        <v>0.99450000000000005</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>4</v>
@@ -2033,16 +2063,16 @@
         <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21"/>
       <c r="B8" s="10" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>

--- a/Documentation/Reports and Papers/Knee_Torque_Test/Tables/CoefficientTable.xlsx
+++ b/Documentation/Reports and Papers/Knee_Torque_Test/Tables/CoefficientTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Documentation\Reports and Papers\Knee_Torque_Test\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BB1159-722C-46B1-9D9A-6FBBAB96E689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294A9792-2E5E-44EC-B56D-1893264F3D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="129">
   <si>
     <t>Equation</t>
   </si>
@@ -307,12 +307,6 @@
     <t>30.9 N</t>
   </si>
   <si>
-    <t>$a_1 =\qty{303.5}{\N}$</t>
-  </si>
-  <si>
-    <t>$a_2 = \qty{19.03}{\per\m}$</t>
-  </si>
-  <si>
     <t>(0.4822, 0.4968)</t>
   </si>
   <si>
@@ -328,9 +322,6 @@
     <t>11.61 N</t>
   </si>
   <si>
-    <t>53.9 N</t>
-  </si>
-  <si>
     <t>*LAR</t>
   </si>
   <si>
@@ -379,12 +370,6 @@
     <t>$b_0 = -0.5822$</t>
   </si>
   <si>
-    <t>$a_1 = \qty{922.4}{\N}$</t>
-  </si>
-  <si>
-    <t>$a_2=\qty{15.37}{\per\m}$</t>
-  </si>
-  <si>
     <t>(14.75, 15.98)</t>
   </si>
   <si>
@@ -395,6 +380,51 @@
   </si>
   <si>
     <t>62.1 N</t>
+  </si>
+  <si>
+    <t>Comparison</t>
+  </si>
+  <si>
+    <t>1590.1 N</t>
+  </si>
+  <si>
+    <t>14.7 N</t>
+  </si>
+  <si>
+    <t>668.4 N</t>
+  </si>
+  <si>
+    <t>189.9 N</t>
+  </si>
+  <si>
+    <t>375.6 N</t>
+  </si>
+  <si>
+    <t>$b_1 =\qty{303.5}{\N}$</t>
+  </si>
+  <si>
+    <t>$b_2 = \qty{19.03}{\per\m}$</t>
+  </si>
+  <si>
+    <t>$b_1 = \qty{922.4}{\N}$</t>
+  </si>
+  <si>
+    <t>$b_2=\qty{15.37}{\per\m}$</t>
+  </si>
+  <si>
+    <t>55.3 N</t>
+  </si>
+  <si>
+    <t>kmax</t>
+  </si>
+  <si>
+    <t>f(x) = p1*x + p2</t>
+  </si>
+  <si>
+    <t>p1 = 0.03309</t>
+  </si>
+  <si>
+    <t>p2 = 0.153</t>
   </si>
 </sst>
 </file>
@@ -534,7 +564,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -649,6 +679,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1532,10 +1571,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D3" s="19">
         <v>0.99480000000000002</v>
@@ -1553,19 +1592,19 @@
         <v>3.8760000000000003E-2</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
       <c r="B4" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
@@ -1577,10 +1616,10 @@
     <row r="5" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>
       <c r="B5" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -1594,10 +1633,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D6" s="19">
         <v>0.99980000000000002</v>
@@ -1606,7 +1645,7 @@
         <v>4.5370000000000002E-3</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G6" s="16">
         <v>0.98780000000000001</v>
@@ -1615,19 +1654,19 @@
         <v>3.9660000000000001E-2</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23"/>
       <c r="B7" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
@@ -1639,10 +1678,10 @@
     <row r="8" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24"/>
       <c r="B8" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -1881,10 +1920,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63494E59-DB24-4854-848F-7E392F2629DB}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1912,7 +1951,7 @@
       <c r="E1" s="32"/>
       <c r="F1" s="34"/>
       <c r="G1" s="31" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="H1" s="32"/>
       <c r="I1" s="33"/>
@@ -1948,22 +1987,22 @@
         <v>85</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3" s="39">
-        <v>0.99439999999999995</v>
+        <v>0.99450000000000005</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="G3" s="39">
         <v>0.98540000000000005</v>
       </c>
       <c r="H3" s="39" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="I3" s="39" t="s">
         <v>88</v>
@@ -1978,7 +2017,7 @@
         <v>86</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D4" s="40"/>
       <c r="E4" s="40"/>
@@ -1992,13 +2031,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D5" s="16">
-        <v>0.98450000000000004</v>
+        <v>0.98540000000000005</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>87</v>
@@ -2009,11 +2048,11 @@
       <c r="G5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>4</v>
+      <c r="H5" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>119</v>
       </c>
       <c r="J5" t="s">
         <v>84</v>
@@ -2022,45 +2061,45 @@
     <row r="6" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21"/>
       <c r="B6" s="10" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D7" s="19">
         <v>0.99450000000000005</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>4</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="J7" t="s">
         <v>73</v>
@@ -2069,10 +2108,10 @@
     <row r="8" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21"/>
       <c r="B8" s="10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -2080,6 +2119,31 @@
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12">
+        <v>0.46710000000000002</v>
+      </c>
+      <c r="E12">
+        <v>8.3260000000000001E-3</v>
+      </c>
+      <c r="F12">
+        <v>0.1855</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="26">

--- a/Documentation/Reports and Papers/Knee_Torque_Test/Tables/CoefficientTable.xlsx
+++ b/Documentation/Reports and Papers/Knee_Torque_Test/Tables/CoefficientTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Documentation\Reports and Papers\Knee_Torque_Test\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294A9792-2E5E-44EC-B56D-1893264F3D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9EDB0A-236B-40A5-8AC8-2FD64FDD04C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31920" yWindow="1920" windowWidth="16320" windowHeight="8985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coefficient table" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="138">
   <si>
     <t>Equation</t>
   </si>
@@ -211,9 +211,6 @@
     <t>$a_2 = \qty{0.03171}{\per\kPa\per\m}$</t>
   </si>
   <si>
-    <t>5.4\%</t>
-  </si>
-  <si>
     <t>b_0 = -0.2404</t>
   </si>
   <si>
@@ -235,63 +232,12 @@
     <t>$a_1 = \qty{0.4909}{\N\per\kPa}$</t>
   </si>
   <si>
-    <t>$b_0 = -0.2404$</t>
-  </si>
-  <si>
-    <t>$b_1 = 7.047$</t>
-  </si>
-  <si>
-    <t>$b_2 = 1.412$</t>
-  </si>
-  <si>
-    <t>$b_1 = 10.83$</t>
-  </si>
-  <si>
-    <t>$b_2 = 2.141$</t>
-  </si>
-  <si>
-    <t>$b_0 = -0.119$</t>
-  </si>
-  <si>
-    <t>\ref{eq:exp20mm}, Festo data</t>
-  </si>
-  <si>
-    <t>\ref{eq:exp20mm}, Experiment data</t>
-  </si>
-  <si>
     <t>*Bisquare</t>
   </si>
   <si>
-    <t>$b_0 = -0.2604$</t>
-  </si>
-  <si>
-    <t>$b_1 = 6.692$</t>
-  </si>
-  <si>
-    <t>$b_2 = 1.294$</t>
-  </si>
-  <si>
-    <t>(1.22, 1.368)</t>
-  </si>
-  <si>
-    <t>(5.84, 7.544)</t>
-  </si>
-  <si>
-    <t>(-0.2765, -0.2443)</t>
-  </si>
-  <si>
-    <t>6.8\%</t>
-  </si>
-  <si>
-    <t>6.6\%</t>
-  </si>
-  <si>
     <t>6.5\%</t>
   </si>
   <si>
-    <t>*Bisquare (best results with robust off though)</t>
-  </si>
-  <si>
     <t>*No robustness</t>
   </si>
   <si>
@@ -337,12 +283,6 @@
     <t>(6.022, 6.943)</t>
   </si>
   <si>
-    <t>(-0.42, -0.3753)</t>
-  </si>
-  <si>
-    <t>$b_0 = -0.3976$</t>
-  </si>
-  <si>
     <t>$b_1 = 6.482$</t>
   </si>
   <si>
@@ -355,9 +295,6 @@
     <t>(4.043, 4.241)</t>
   </si>
   <si>
-    <t>(-0.5902, -0.5742)</t>
-  </si>
-  <si>
     <t>(0.5235, 0.55)</t>
   </si>
   <si>
@@ -367,18 +304,12 @@
     <t>$b_1 = 4.142$</t>
   </si>
   <si>
-    <t>$b_0 = -0.5822$</t>
-  </si>
-  <si>
     <t>(14.75, 15.98)</t>
   </si>
   <si>
     <t>(914.2, 930.7)</t>
   </si>
   <si>
-    <t>23.83N</t>
-  </si>
-  <si>
     <t>62.1 N</t>
   </si>
   <si>
@@ -425,6 +356,102 @@
   </si>
   <si>
     <t>p2 = 0.153</t>
+  </si>
+  <si>
+    <t>Adj. $R^2$</t>
+  </si>
+  <si>
+    <t>23.83 N</t>
+  </si>
+  <si>
+    <t>(0.5902, 0.5742)</t>
+  </si>
+  <si>
+    <t>$b_0 = 0.5822$</t>
+  </si>
+  <si>
+    <t>(0.42, 0.3753)</t>
+  </si>
+  <si>
+    <t>$b_0 = 0.3976$</t>
+  </si>
+  <si>
+    <t>3.8\%</t>
+  </si>
+  <si>
+    <t>7.6\%</t>
+  </si>
+  <si>
+    <t>(0.2442, 0.2773)</t>
+  </si>
+  <si>
+    <t>(5.584, 7.212)</t>
+  </si>
+  <si>
+    <t>(1.228, 1.378)</t>
+  </si>
+  <si>
+    <t>$b_0 = 0.2165$</t>
+  </si>
+  <si>
+    <t>$b_1 = 7.583$</t>
+  </si>
+  <si>
+    <t>$b_2 = 1.515$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0.1922, 0.2408)</t>
+  </si>
+  <si>
+    <t>(6.557, 8.609)</t>
+  </si>
+  <si>
+    <t>(1.384, 1.646)</t>
+  </si>
+  <si>
+    <t>$b_0 = 0.2607$</t>
+  </si>
+  <si>
+    <t>$b_1 = 6.398$</t>
+  </si>
+  <si>
+    <t>$b_2 = 1.303$</t>
+  </si>
+  <si>
+    <t>$b_0 = 0.1224$</t>
+  </si>
+  <si>
+    <t>$b_1 = 10.47$</t>
+  </si>
+  <si>
+    <t>$b_2 = 2.023$</t>
+  </si>
+  <si>
+    <t>(0.08954, 0.1552)</t>
+  </si>
+  <si>
+    <t>(6.955, 13.99)</t>
+  </si>
+  <si>
+    <t>(1.715, 2.331)</t>
+  </si>
+  <si>
+    <t>10.0\%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \ref{eq:exp10}, Festo data</t>
+  </si>
+  <si>
+    <t>\ref{eq:exp10}, Experiment data</t>
+  </si>
+  <si>
+    <t>\ref{eq:exp20}, Festo data</t>
+  </si>
+  <si>
+    <t>\ref{eq:exp20}, Experiment data</t>
+  </si>
+  <si>
+    <t>\ref{eq:exp40}</t>
   </si>
 </sst>
 </file>
@@ -972,7 +999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFED512C-20B1-4472-8C7D-BFE8EE5F9AB6}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -1081,7 +1108,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>41</v>
@@ -1287,10 +1314,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="19">
         <v>0.99590000000000001</v>
@@ -1314,10 +1341,10 @@
     <row r="16" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
       <c r="B16" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -1329,10 +1356,10 @@
     <row r="17" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21"/>
       <c r="B17" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
@@ -1506,8 +1533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248EE269-D9C6-4699-8B6A-E13E54F18600}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1548,7 +1575,7 @@
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
       <c r="D2" s="6" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>2</v>
@@ -1557,7 +1584,7 @@
         <v>14</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>2</v>
@@ -1568,13 +1595,13 @@
     </row>
     <row r="3" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D3" s="19">
         <v>0.99480000000000002</v>
@@ -1589,22 +1616,22 @@
         <v>0.98819999999999997</v>
       </c>
       <c r="H3" s="16">
-        <v>3.8760000000000003E-2</v>
+        <v>3.8769999999999999E-2</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
       <c r="B4" s="5" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
@@ -1616,10 +1643,10 @@
     <row r="5" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>
       <c r="B5" s="5" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -1630,13 +1657,13 @@
     </row>
     <row r="6" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>109</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D6" s="19">
         <v>0.99980000000000002</v>
@@ -1645,7 +1672,7 @@
         <v>4.5370000000000002E-3</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="G6" s="16">
         <v>0.98780000000000001</v>
@@ -1654,19 +1681,19 @@
         <v>3.9660000000000001E-2</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23"/>
       <c r="B7" s="5" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
@@ -1678,10 +1705,10 @@
     <row r="8" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24"/>
       <c r="B8" s="5" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -1692,40 +1719,43 @@
     </row>
     <row r="9" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="D9" s="19">
-        <v>0.99590000000000001</v>
+        <v>0.99519999999999997</v>
       </c>
       <c r="E9" s="19">
-        <v>1.8380000000000001E-2</v>
+        <v>1.992E-2</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="G9" s="16">
-        <v>0.99229999999999996</v>
+        <v>0.99039999999999995</v>
       </c>
       <c r="H9" s="16">
-        <v>2.3480000000000001E-2</v>
+        <v>2.6259999999999999E-2</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>82</v>
+        <v>113</v>
+      </c>
+      <c r="J9" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="5" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
@@ -1737,10 +1767,10 @@
     <row r="11" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21"/>
       <c r="B11" s="5" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
@@ -1751,43 +1781,43 @@
     </row>
     <row r="12" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="D12" s="19">
-        <v>0.99229999999999996</v>
+        <v>0.99270000000000003</v>
       </c>
       <c r="E12" s="19">
-        <v>2.341E-2</v>
+        <v>2.291E-2</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="G12" s="16">
-        <v>0.99490000000000001</v>
+        <v>0.995</v>
       </c>
       <c r="H12" s="16">
-        <v>2.034E-2</v>
+        <v>2.019E-2</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="J12" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20"/>
       <c r="B13" s="5" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -1799,10 +1829,10 @@
     <row r="14" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21"/>
       <c r="B14" s="5" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
@@ -1813,22 +1843,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
-        <v>8</v>
+        <v>137</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="D15" s="19">
-        <v>0.98529999999999995</v>
+        <v>0.98340000000000005</v>
       </c>
       <c r="E15" s="19">
-        <v>3.7539999999999997E-2</v>
+        <v>3.9109999999999999E-2</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>4</v>
@@ -1838,15 +1868,18 @@
       </c>
       <c r="I15" s="16" t="s">
         <v>4</v>
+      </c>
+      <c r="J15" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
       <c r="B16" s="5" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -1858,10 +1891,10 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="21"/>
       <c r="B17" s="5" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
@@ -1922,8 +1955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63494E59-DB24-4854-848F-7E392F2629DB}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1951,7 +1984,7 @@
       <c r="E1" s="32"/>
       <c r="F1" s="34"/>
       <c r="G1" s="31" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="H1" s="32"/>
       <c r="I1" s="33"/>
@@ -1961,7 +1994,7 @@
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
       <c r="D2" s="6" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>2</v>
@@ -1970,7 +2003,7 @@
         <v>14</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>2</v>
@@ -1984,40 +2017,40 @@
         <v>7</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D3" s="39">
         <v>0.99450000000000005</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="G3" s="39">
         <v>0.98540000000000005</v>
       </c>
       <c r="H3" s="39" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="J3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40"/>
       <c r="B4" s="37" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="D4" s="40"/>
       <c r="E4" s="40"/>
@@ -2031,40 +2064,40 @@
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D5" s="16">
         <v>0.98540000000000005</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="G5" s="16" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="41" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="I5" s="41" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="J5" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21"/>
       <c r="B6" s="10" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -2078,40 +2111,40 @@
         <v>10</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="D7" s="19">
         <v>0.99450000000000005</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>4</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21"/>
       <c r="B8" s="10" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -2122,18 +2155,18 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="D12">
         <v>0.46710000000000002</v>

--- a/Documentation/Reports and Papers/Knee_Torque_Test/Tables/CoefficientTable.xlsx
+++ b/Documentation/Reports and Papers/Knee_Torque_Test/Tables/CoefficientTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Documentation\Reports and Papers\Knee_Torque_Test\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9EDB0A-236B-40A5-8AC8-2FD64FDD04C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210DFFCD-A3C7-42DD-9186-49D2AC85CBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31920" yWindow="1920" windowWidth="16320" windowHeight="8985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coefficient table" sheetId="4" r:id="rId1"/>
@@ -274,18 +274,12 @@
     <t>14.4\%</t>
   </si>
   <si>
-    <t>$b_2 = 0.998$</t>
-  </si>
-  <si>
     <t>(0.9238, 1.072)</t>
   </si>
   <si>
     <t>(6.022, 6.943)</t>
   </si>
   <si>
-    <t>$b_1 = 6.482$</t>
-  </si>
-  <si>
     <t>10.6\%</t>
   </si>
   <si>
@@ -298,12 +292,6 @@
     <t>(0.5235, 0.55)</t>
   </si>
   <si>
-    <t>$b_2 = 0.5368$</t>
-  </si>
-  <si>
-    <t>$b_1 = 4.142$</t>
-  </si>
-  <si>
     <t>(14.75, 15.98)</t>
   </si>
   <si>
@@ -364,18 +352,6 @@
     <t>23.83 N</t>
   </si>
   <si>
-    <t>(0.5902, 0.5742)</t>
-  </si>
-  <si>
-    <t>$b_0 = 0.5822$</t>
-  </si>
-  <si>
-    <t>(0.42, 0.3753)</t>
-  </si>
-  <si>
-    <t>$b_0 = 0.3976$</t>
-  </si>
-  <si>
     <t>3.8\%</t>
   </si>
   <si>
@@ -391,15 +367,6 @@
     <t>(1.228, 1.378)</t>
   </si>
   <si>
-    <t>$b_0 = 0.2165$</t>
-  </si>
-  <si>
-    <t>$b_1 = 7.583$</t>
-  </si>
-  <si>
-    <t>$b_2 = 1.515$</t>
-  </si>
-  <si>
     <t xml:space="preserve"> (0.1922, 0.2408)</t>
   </si>
   <si>
@@ -409,24 +376,6 @@
     <t>(1.384, 1.646)</t>
   </si>
   <si>
-    <t>$b_0 = 0.2607$</t>
-  </si>
-  <si>
-    <t>$b_1 = 6.398$</t>
-  </si>
-  <si>
-    <t>$b_2 = 1.303$</t>
-  </si>
-  <si>
-    <t>$b_0 = 0.1224$</t>
-  </si>
-  <si>
-    <t>$b_1 = 10.47$</t>
-  </si>
-  <si>
-    <t>$b_2 = 2.023$</t>
-  </si>
-  <si>
     <t>(0.08954, 0.1552)</t>
   </si>
   <si>
@@ -452,6 +401,57 @@
   </si>
   <si>
     <t>\ref{eq:exp40}</t>
+  </si>
+  <si>
+    <t>(0.5742, 0.5902)</t>
+  </si>
+  <si>
+    <t>(0.3753, 0.42)</t>
+  </si>
+  <si>
+    <t>$c_0 = 0.3976$</t>
+  </si>
+  <si>
+    <t>$c_1 = 6.482$</t>
+  </si>
+  <si>
+    <t>$c_2 = 0.998$</t>
+  </si>
+  <si>
+    <t>$c_0 = 0.5822$</t>
+  </si>
+  <si>
+    <t>$c_1 = 4.142$</t>
+  </si>
+  <si>
+    <t>$c_2 = 0.5368$</t>
+  </si>
+  <si>
+    <t>$c_0 = 0.2165$</t>
+  </si>
+  <si>
+    <t>$c_1 = 7.583$</t>
+  </si>
+  <si>
+    <t>$c_2 = 1.515$</t>
+  </si>
+  <si>
+    <t>$c_0 = 0.2607$</t>
+  </si>
+  <si>
+    <t>$c_1 = 6.398$</t>
+  </si>
+  <si>
+    <t>$c_2 = 1.303$</t>
+  </si>
+  <si>
+    <t>$c_0 = 0.1224$</t>
+  </si>
+  <si>
+    <t>$c_1 = 10.47$</t>
+  </si>
+  <si>
+    <t>$c_2 = 2.023$</t>
   </si>
 </sst>
 </file>
@@ -1533,8 +1533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248EE269-D9C6-4699-8B6A-E13E54F18600}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1575,7 +1575,7 @@
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
       <c r="D2" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>2</v>
@@ -1584,7 +1584,7 @@
         <v>14</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>2</v>
@@ -1595,13 +1595,13 @@
     </row>
     <row r="3" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D3" s="19">
         <v>0.99480000000000002</v>
@@ -1628,10 +1628,10 @@
     <row r="4" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
       <c r="B4" s="5" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
@@ -1643,10 +1643,10 @@
     <row r="5" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>
       <c r="B5" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -1657,13 +1657,13 @@
     </row>
     <row r="6" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D6" s="19">
         <v>0.99980000000000002</v>
@@ -1672,7 +1672,7 @@
         <v>4.5370000000000002E-3</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G6" s="16">
         <v>0.98780000000000001</v>
@@ -1681,7 +1681,7 @@
         <v>3.9660000000000001E-2</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
         <v>76</v>
@@ -1690,10 +1690,10 @@
     <row r="7" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23"/>
       <c r="B7" s="5" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
@@ -1705,10 +1705,10 @@
     <row r="8" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24"/>
       <c r="B8" s="5" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -1719,13 +1719,13 @@
     </row>
     <row r="9" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D9" s="19">
         <v>0.99519999999999997</v>
@@ -1734,7 +1734,7 @@
         <v>1.992E-2</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G9" s="16">
         <v>0.99039999999999995</v>
@@ -1743,7 +1743,7 @@
         <v>2.6259999999999999E-2</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s">
         <v>76</v>
@@ -1752,10 +1752,10 @@
     <row r="10" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="5" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
@@ -1767,10 +1767,10 @@
     <row r="11" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21"/>
       <c r="B11" s="5" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
@@ -1781,13 +1781,13 @@
     </row>
     <row r="12" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D12" s="19">
         <v>0.99270000000000003</v>
@@ -1814,10 +1814,10 @@
     <row r="13" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20"/>
       <c r="B13" s="5" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -1829,10 +1829,10 @@
     <row r="14" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21"/>
       <c r="B14" s="5" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
@@ -1843,13 +1843,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="D15" s="19">
         <v>0.98340000000000005</v>
@@ -1858,7 +1858,7 @@
         <v>3.9109999999999999E-2</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>4</v>
@@ -1876,10 +1876,10 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
       <c r="B16" s="5" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -1891,10 +1891,10 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="21"/>
       <c r="B17" s="5" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
@@ -1956,7 +1956,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1984,7 +1984,7 @@
       <c r="E1" s="32"/>
       <c r="F1" s="34"/>
       <c r="G1" s="31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H1" s="32"/>
       <c r="I1" s="33"/>
@@ -1994,7 +1994,7 @@
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
       <c r="D2" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>2</v>
@@ -2003,7 +2003,7 @@
         <v>14</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>2</v>
@@ -2029,13 +2029,13 @@
         <v>75</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G3" s="39">
         <v>0.98540000000000005</v>
       </c>
       <c r="H3" s="39" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I3" s="39" t="s">
         <v>70</v>
@@ -2064,7 +2064,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>73</v>
@@ -2082,10 +2082,10 @@
         <v>4</v>
       </c>
       <c r="H5" s="41" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I5" s="41" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J5" t="s">
         <v>66</v>
@@ -2094,7 +2094,7 @@
     <row r="6" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21"/>
       <c r="B6" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>74</v>
@@ -2111,28 +2111,28 @@
         <v>10</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D7" s="19">
         <v>0.99450000000000005</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>4</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
         <v>64</v>
@@ -2141,10 +2141,10 @@
     <row r="8" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21"/>
       <c r="B8" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -2155,18 +2155,18 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D12">
         <v>0.46710000000000002</v>

--- a/Documentation/Reports and Papers/Knee_Torque_Test/Tables/CoefficientTable.xlsx
+++ b/Documentation/Reports and Papers/Knee_Torque_Test/Tables/CoefficientTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Documentation\Reports and Papers\Knee_Torque_Test\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210DFFCD-A3C7-42DD-9186-49D2AC85CBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7D3C4C-5D43-4B35-B2F0-ED9B330C9875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-192" yWindow="-192" windowWidth="23424" windowHeight="12624" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coefficient table" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Fmax" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -388,18 +389,6 @@
     <t>10.0\%</t>
   </si>
   <si>
-    <t xml:space="preserve"> \ref{eq:exp10}, Festo data</t>
-  </si>
-  <si>
-    <t>\ref{eq:exp10}, Experiment data</t>
-  </si>
-  <si>
-    <t>\ref{eq:exp20}, Festo data</t>
-  </si>
-  <si>
-    <t>\ref{eq:exp20}, Experiment data</t>
-  </si>
-  <si>
     <t>\ref{eq:exp40}</t>
   </si>
   <si>
@@ -452,6 +441,18 @@
   </si>
   <si>
     <t>$c_2 = 2.023$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \ref{eq:exp},\\ $\phi\qty{10}{\mm}$,\\ Festo data</t>
+  </si>
+  <si>
+    <t>\ref{eq:exp},\\ $\phi\qty{10}{\mm}$,\\ Experiment data</t>
+  </si>
+  <si>
+    <t>\ref{eq:exp},\\ $\phi\qty{20}{\mm}$,\\ Festo data</t>
+  </si>
+  <si>
+    <t>\ref{eq:exp},\\ $\phi\qty{20}{\mm}$,\\ Experiment data</t>
   </si>
 </sst>
 </file>
@@ -623,24 +624,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -690,18 +706,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
@@ -712,9 +716,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1016,30 +1017,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="27" t="s">
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="30"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
@@ -1060,7 +1061,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1069,42 +1070,42 @@
       <c r="C3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="20">
         <v>0.98319999999999996</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="20">
         <v>13.62</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="24" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1113,42 +1114,42 @@
       <c r="C5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="24">
         <v>0.98680000000000001</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="23">
         <v>0.92200000000000004</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="23" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1157,42 +1158,42 @@
       <c r="C7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="23">
         <v>0.99270000000000003</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="27" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1201,57 +1202,57 @@
       <c r="C9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="24">
         <v>0.99450000000000005</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="24">
         <v>2.657E-2</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="20">
         <v>0.98260000000000003</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="20">
         <v>4.65E-2</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="20" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
     </row>
     <row r="12" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="27" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1260,57 +1261,57 @@
       <c r="C12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="24">
         <v>0.99580000000000002</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="24">
         <v>2.2679999999999999E-2</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="20">
         <v>0.98839999999999995</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="20">
         <v>3.8739999999999997E-2</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
     </row>
     <row r="15" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="24" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1319,57 +1320,57 @@
       <c r="C15" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="24">
         <v>0.99590000000000001</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="24">
         <v>1.8380000000000001E-2</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
     </row>
     <row r="18" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1378,54 +1379,54 @@
       <c r="C18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="24">
         <v>0.98529999999999995</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="24">
         <v>3.7539999999999997E-2</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="16" t="s">
+      <c r="I18" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
     </row>
     <row r="20" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
@@ -1533,8 +1534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248EE269-D9C6-4699-8B6A-E13E54F18600}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1550,30 +1551,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="31" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="32"/>
-      <c r="I1" s="33"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="38"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="6" t="s">
         <v>102</v>
       </c>
@@ -1594,31 +1595,31 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
-        <v>116</v>
+      <c r="A3" s="27" t="s">
+        <v>134</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="19">
+        <v>118</v>
+      </c>
+      <c r="D3" s="24">
         <v>0.99480000000000002</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="24">
         <v>2.5829999999999999E-2</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="20">
         <v>0.98819999999999997</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="20">
         <v>3.8769999999999999E-2</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="20" t="s">
         <v>77</v>
       </c>
       <c r="J3" t="s">
@@ -1626,61 +1627,61 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
     </row>
     <row r="5" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
     </row>
     <row r="6" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="19">
+      <c r="D6" s="24">
         <v>0.99980000000000002</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="24">
         <v>4.5370000000000002E-3</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="20">
         <v>0.98780000000000001</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="20">
         <v>3.9660000000000001E-2</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="20" t="s">
         <v>81</v>
       </c>
       <c r="J6" t="s">
@@ -1688,61 +1689,61 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
-        <v>118</v>
+      <c r="A9" s="24" t="s">
+        <v>136</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="24">
         <v>0.99519999999999997</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="24">
         <v>1.992E-2</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="20">
         <v>0.99039999999999995</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="20">
         <v>2.6259999999999999E-2</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="20" t="s">
         <v>105</v>
       </c>
       <c r="J9" t="s">
@@ -1750,61 +1751,61 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
     </row>
     <row r="12" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
-        <v>119</v>
+      <c r="A12" s="24" t="s">
+        <v>137</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="24">
         <v>0.99270000000000003</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="24">
         <v>2.291E-2</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="20">
         <v>0.995</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="20">
         <v>2.019E-2</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="20" t="s">
         <v>65</v>
       </c>
       <c r="J12" t="s">
@@ -1812,61 +1813,61 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
-        <v>120</v>
+      <c r="A15" s="24" t="s">
+        <v>116</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="24">
         <v>0.98340000000000005</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="24">
         <v>3.9109999999999999E-2</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="20" t="s">
         <v>4</v>
       </c>
       <c r="J15" t="s">
@@ -1874,34 +1875,34 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -1955,8 +1956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63494E59-DB24-4854-848F-7E392F2629DB}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1969,30 +1970,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="31" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="32"/>
-      <c r="I1" s="33"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="38"/>
     </row>
     <row r="2" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="6" t="s">
         <v>102</v>
       </c>
@@ -2013,31 +2014,31 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="40">
         <v>0.99450000000000005</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="39">
+      <c r="G3" s="40">
         <v>0.98540000000000005</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="40" t="s">
         <v>70</v>
       </c>
       <c r="J3" t="s">
@@ -2045,22 +2046,22 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
-      <c r="B4" s="37" t="s">
+      <c r="A4" s="41"/>
+      <c r="B4" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
     </row>
     <row r="5" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -2069,22 +2070,22 @@
       <c r="C5" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="20">
         <v>0.98540000000000005</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="42" t="s">
         <v>92</v>
       </c>
       <c r="J5" t="s">
@@ -2092,22 +2093,22 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="10" t="s">
         <v>94</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
     </row>
     <row r="7" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="24" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -2116,22 +2117,22 @@
       <c r="C7" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="24">
         <v>0.99450000000000005</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="20" t="s">
         <v>88</v>
       </c>
       <c r="J7" t="s">
@@ -2139,25 +2140,25 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="10" t="s">
         <v>96</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="17" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2165,7 +2166,7 @@
       <c r="A12" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="17" t="s">
         <v>101</v>
       </c>
       <c r="D12">
@@ -2180,32 +2181,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/Reports and Papers/Knee_Torque_Test/Tables/CoefficientTable.xlsx
+++ b/Documentation/Reports and Papers/Knee_Torque_Test/Tables/CoefficientTable.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Documentation\Reports and Papers\Knee_Torque_Test\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7D3C4C-5D43-4B35-B2F0-ED9B330C9875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A9276F-9D31-41C9-9855-5A9AAB38F1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-192" yWindow="-192" windowWidth="23424" windowHeight="12624" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coefficient table" sheetId="4" r:id="rId1"/>
     <sheet name="F_rel" sheetId="2" r:id="rId2"/>
     <sheet name="Fmax" sheetId="3" r:id="rId3"/>
+    <sheet name="Gof_FlxExt" sheetId="5" r:id="rId4"/>
+    <sheet name="Optimized values" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="155">
   <si>
     <t>Equation</t>
   </si>
@@ -453,6 +454,57 @@
   </si>
   <si>
     <t>\ref{eq:exp},\\ $\phi\qty{20}{\mm}$,\\ Experiment data</t>
+  </si>
+  <si>
+    <t>Flexor</t>
+  </si>
+  <si>
+    <t>Pinned knee</t>
+  </si>
+  <si>
+    <t>Biomimetic knee</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>\phi</t>
+  </si>
+  <si>
+    <t>BPA l_{rest}, cm</t>
+  </si>
+  <si>
+    <t>FVU</t>
+  </si>
+  <si>
+    <t>Max. Residual, N\cdotm</t>
+  </si>
+  <si>
+    <t>RMSE, N\cdotm</t>
+  </si>
+  <si>
+    <t>Pre-optimization</t>
+  </si>
+  <si>
+    <t>Optimized</t>
+  </si>
+  <si>
+    <t>Extensor</t>
+  </si>
+  <si>
+    <t>X0</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -592,7 +644,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -639,60 +691,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -717,6 +769,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1017,30 +1086,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="32" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="35"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
@@ -1061,7 +1130,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1079,33 +1148,33 @@
       <c r="F3" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="35" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
     </row>
     <row r="5" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1114,42 +1183,42 @@
       <c r="C5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="18">
         <v>0.98680000000000001</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="26">
         <v>0.92200000000000004</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="26" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
     </row>
     <row r="7" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="26" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1158,42 +1227,42 @@
       <c r="C7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="26">
         <v>0.99270000000000003</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="35" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1202,13 +1271,13 @@
       <c r="C9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="18">
         <v>0.99450000000000005</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="18">
         <v>2.657E-2</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="18" t="s">
         <v>33</v>
       </c>
       <c r="G9" s="20">
@@ -1222,7 +1291,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="5" t="s">
         <v>27</v>
       </c>
@@ -1232,27 +1301,27 @@
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
     </row>
     <row r="11" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="22" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1261,13 +1330,13 @@
       <c r="C12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="18">
         <v>0.99580000000000002</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="18">
         <v>2.2679999999999999E-2</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="18" t="s">
         <v>24</v>
       </c>
       <c r="G12" s="20">
@@ -1281,7 +1350,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="5" t="s">
         <v>35</v>
       </c>
@@ -1291,27 +1360,27 @@
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1320,13 +1389,13 @@
       <c r="C15" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="18">
         <v>0.99590000000000001</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="18">
         <v>1.8380000000000001E-2</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="18" t="s">
         <v>20</v>
       </c>
       <c r="G15" s="20" t="s">
@@ -1350,27 +1419,27 @@
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1379,13 +1448,13 @@
       <c r="C18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="18">
         <v>0.98529999999999995</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="18">
         <v>3.7539999999999997E-2</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="18" t="s">
         <v>19</v>
       </c>
       <c r="G18" s="20" t="s">
@@ -1409,24 +1478,24 @@
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
@@ -1470,44 +1539,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
@@ -1524,6 +1555,44 @@
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1551,13 +1620,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="28" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="36" t="s">
@@ -1572,9 +1641,9 @@
       <c r="I1" s="38"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="6" t="s">
         <v>102</v>
       </c>
@@ -1595,7 +1664,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="22" t="s">
         <v>134</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1604,13 +1673,13 @@
       <c r="C3" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="18">
         <v>0.99480000000000002</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="18">
         <v>2.5829999999999999E-2</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="18" t="s">
         <v>33</v>
       </c>
       <c r="G3" s="20">
@@ -1627,7 +1696,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="5" t="s">
         <v>120</v>
       </c>
@@ -1637,27 +1706,27 @@
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
     </row>
     <row r="5" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="5" t="s">
         <v>121</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
     </row>
     <row r="6" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="22" t="s">
         <v>135</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1666,13 +1735,13 @@
       <c r="C6" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="18">
         <v>0.99980000000000002</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="18">
         <v>4.5370000000000002E-3</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="18" t="s">
         <v>80</v>
       </c>
       <c r="G6" s="20">
@@ -1689,7 +1758,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="5" t="s">
         <v>123</v>
       </c>
@@ -1699,27 +1768,27 @@
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="5" t="s">
         <v>124</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="18" t="s">
         <v>136</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1728,13 +1797,13 @@
       <c r="C9" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="18">
         <v>0.99519999999999997</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="18">
         <v>1.992E-2</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="18" t="s">
         <v>104</v>
       </c>
       <c r="G9" s="20">
@@ -1761,27 +1830,27 @@
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
     </row>
     <row r="11" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="5" t="s">
         <v>127</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="18" t="s">
         <v>137</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1790,13 +1859,13 @@
       <c r="C12" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="18">
         <v>0.99270000000000003</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="18">
         <v>2.291E-2</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="18" t="s">
         <v>33</v>
       </c>
       <c r="G12" s="20">
@@ -1823,27 +1892,27 @@
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="5" t="s">
         <v>130</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1852,13 +1921,13 @@
       <c r="C15" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="18">
         <v>0.98340000000000005</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="18">
         <v>3.9109999999999999E-2</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="18" t="s">
         <v>115</v>
       </c>
       <c r="G15" s="20" t="s">
@@ -1885,54 +1954,32 @@
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="5" t="s">
         <v>133</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="F3:F5"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="D6:D8"/>
@@ -1941,11 +1988,33 @@
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A6:A8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1956,7 +2025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63494E59-DB24-4854-848F-7E392F2629DB}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -1970,13 +2039,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="28" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="36" t="s">
@@ -1991,9 +2060,9 @@
       <c r="I1" s="38"/>
     </row>
     <row r="2" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="6" t="s">
         <v>102</v>
       </c>
@@ -2061,7 +2130,7 @@
       <c r="I4" s="41"/>
     </row>
     <row r="5" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -2093,22 +2162,22 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="10" t="s">
         <v>94</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="26"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="19"/>
       <c r="H6" s="43"/>
       <c r="I6" s="43"/>
     </row>
     <row r="7" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -2117,13 +2186,13 @@
       <c r="C7" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="18">
         <v>0.99450000000000005</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="18" t="s">
         <v>86</v>
       </c>
       <c r="G7" s="20" t="s">
@@ -2140,19 +2209,19 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="10" t="s">
         <v>96</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -2181,6 +2250,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="G1:I1"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
@@ -2195,19 +2274,326 @@
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="G1:I1"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{959911B6-8118-467B-8966-D274265204EE}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="10.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="J2" s="52" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="45">
+        <v>10</v>
+      </c>
+      <c r="D3" s="45">
+        <v>48.5</v>
+      </c>
+      <c r="E3" s="45">
+        <v>4.8705999999999996</v>
+      </c>
+      <c r="F3" s="45">
+        <v>0.72330000000000005</v>
+      </c>
+      <c r="G3" s="45">
+        <v>9.8648000000000007</v>
+      </c>
+      <c r="H3" s="45">
+        <v>1.6074999999999999</v>
+      </c>
+      <c r="I3" s="45">
+        <v>9.4799999999999995E-2</v>
+      </c>
+      <c r="J3" s="45">
+        <v>3.2421000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="45">
+        <v>10</v>
+      </c>
+      <c r="D4" s="45">
+        <v>45.7</v>
+      </c>
+      <c r="E4" s="45">
+        <v>3.0238999999999998</v>
+      </c>
+      <c r="F4" s="45">
+        <v>0.16320000000000001</v>
+      </c>
+      <c r="G4" s="45">
+        <v>6.7526000000000002</v>
+      </c>
+      <c r="H4" s="45">
+        <v>1.9151</v>
+      </c>
+      <c r="I4" s="45">
+        <v>7.1599999999999997E-2</v>
+      </c>
+      <c r="J4" s="45">
+        <v>4.6946000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="47"/>
+      <c r="B5" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="45">
+        <v>10</v>
+      </c>
+      <c r="D5" s="45">
+        <v>41.5</v>
+      </c>
+      <c r="E5" s="45">
+        <v>7.4481999999999999</v>
+      </c>
+      <c r="F5" s="45">
+        <v>5.5566000000000004</v>
+      </c>
+      <c r="G5" s="45">
+        <v>13.308400000000001</v>
+      </c>
+      <c r="H5" s="45">
+        <v>0.68030000000000002</v>
+      </c>
+      <c r="I5" s="45">
+        <v>5.2200000000000003E-2</v>
+      </c>
+      <c r="J5" s="45">
+        <v>1.0546</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="45">
+        <v>20</v>
+      </c>
+      <c r="D6" s="45">
+        <v>41.5</v>
+      </c>
+      <c r="E6" s="45">
+        <v>14.8028</v>
+      </c>
+      <c r="F6" s="45">
+        <v>3.3656000000000001</v>
+      </c>
+      <c r="G6" s="45">
+        <v>23.714700000000001</v>
+      </c>
+      <c r="H6" s="45">
+        <v>2.8675999999999999</v>
+      </c>
+      <c r="I6" s="45">
+        <v>0.1263</v>
+      </c>
+      <c r="J6" s="45">
+        <v>3.5497999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="45">
+        <v>10</v>
+      </c>
+      <c r="D7" s="45">
+        <v>41.5</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="47"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="45">
+        <v>10</v>
+      </c>
+      <c r="D8" s="45">
+        <v>45.7</v>
+      </c>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="47"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="45">
+        <v>10</v>
+      </c>
+      <c r="D9" s="45">
+        <v>48</v>
+      </c>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+    </row>
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="47"/>
+      <c r="B10" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="45">
+        <v>10</v>
+      </c>
+      <c r="D10" s="45">
+        <v>51.8</v>
+      </c>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F20C50-7E80-41CF-971C-9DF8CC7EC325}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="C2" s="44">
+        <v>101740</v>
+      </c>
+      <c r="D2" s="44">
+        <v>10648</v>
+      </c>
+      <c r="E2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documentation/Reports and Papers/Knee_Torque_Test/Tables/CoefficientTable.xlsx
+++ b/Documentation/Reports and Papers/Knee_Torque_Test/Tables/CoefficientTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Documentation\Reports and Papers\Knee_Torque_Test\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A9276F-9D31-41C9-9855-5A9AAB38F1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A63353-00C7-499D-A738-B69717ADF125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2286,7 +2286,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2473,12 +2473,24 @@
       <c r="D7" s="45">
         <v>41.5</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
+      <c r="E7" s="45">
+        <v>4.5197081384539599</v>
+      </c>
+      <c r="F7" s="45">
+        <v>3.9722004305122902</v>
+      </c>
+      <c r="G7" s="45">
+        <v>11.7412109674933</v>
+      </c>
+      <c r="H7" s="45">
+        <v>2.0417894891824799</v>
+      </c>
+      <c r="I7" s="45">
+        <v>0.84442496918497401</v>
+      </c>
+      <c r="J7" s="45">
+        <v>3.58761452437188</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="47"/>
@@ -2489,12 +2501,24 @@
       <c r="D8" s="45">
         <v>45.7</v>
       </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
+      <c r="E8" s="45">
+        <v>1.99920194837266</v>
+      </c>
+      <c r="F8" s="45">
+        <v>0.89213700366721804</v>
+      </c>
+      <c r="G8" s="45">
+        <v>4.6092079774300299</v>
+      </c>
+      <c r="H8" s="45">
+        <v>0.89562322843932496</v>
+      </c>
+      <c r="I8" s="45">
+        <v>0.17904777063236799</v>
+      </c>
+      <c r="J8" s="45">
+        <v>1.8463910818920899</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="47"/>
@@ -2505,12 +2529,24 @@
       <c r="D9" s="45">
         <v>48</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
+      <c r="E9" s="45">
+        <v>0.84470560285347895</v>
+      </c>
+      <c r="F9" s="45">
+        <v>0.23173900510265799</v>
+      </c>
+      <c r="G9" s="45">
+        <v>1.95145372442261</v>
+      </c>
+      <c r="H9" s="45">
+        <v>0.68178489628790195</v>
+      </c>
+      <c r="I9" s="45">
+        <v>0.150967387789747</v>
+      </c>
+      <c r="J9" s="45">
+        <v>2.0676835787835999</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="47"/>
@@ -2523,12 +2559,24 @@
       <c r="D10" s="45">
         <v>51.8</v>
       </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
+      <c r="E10" s="45">
+        <v>3.03222221811638</v>
+      </c>
+      <c r="F10" s="45">
+        <v>4.4855531007687901</v>
+      </c>
+      <c r="G10" s="45">
+        <v>5.5870357213666804</v>
+      </c>
+      <c r="H10" s="45">
+        <v>1.4609329694573101</v>
+      </c>
+      <c r="I10" s="45">
+        <v>1.0412488414276799</v>
+      </c>
+      <c r="J10" s="45">
+        <v>2.7551515923112402</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Documentation/Reports and Papers/Knee_Torque_Test/Tables/CoefficientTable.xlsx
+++ b/Documentation/Reports and Papers/Knee_Torque_Test/Tables/CoefficientTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Documentation\Reports and Papers\Knee_Torque_Test\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Bipedal_Robot\Documentation\Reports and Papers\Knee_Torque_Test\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A63353-00C7-499D-A738-B69717ADF125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AD4BBE-B372-4B5F-876B-49A8C35A0552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36495" yWindow="3060" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coefficient table" sheetId="4" r:id="rId1"/>
@@ -511,7 +511,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,6 +532,21 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -644,7 +659,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -691,18 +706,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -712,15 +747,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -739,12 +765,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -769,23 +789,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1073,43 +1093,43 @@
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="30" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="33"/>
-    </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="38"/>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
@@ -1129,8 +1149,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1139,42 +1159,42 @@
       <c r="C3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="23">
         <v>0.98319999999999996</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="23">
         <v>13.62</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
+    <row r="4" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
       <c r="B4" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-    </row>
-    <row r="5" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+    </row>
+    <row r="5" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1183,13 +1203,13 @@
       <c r="C5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="27">
         <v>0.98680000000000001</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="27" t="s">
         <v>44</v>
       </c>
       <c r="G5" s="26">
@@ -1202,22 +1222,22 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
+    <row r="6" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
       <c r="B6" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-    </row>
-    <row r="7" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+    </row>
+    <row r="7" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>10</v>
       </c>
@@ -1236,33 +1256,33 @@
       <c r="F7" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
+    <row r="8" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
       <c r="B8" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-    </row>
-    <row r="9" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+    </row>
+    <row r="9" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1271,57 +1291,57 @@
       <c r="C9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="27">
         <v>0.99450000000000005</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="27">
         <v>2.657E-2</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="23">
         <v>0.98260000000000003</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="23">
         <v>4.65E-2</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+    <row r="10" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
       <c r="B10" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-    </row>
-    <row r="11" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+    </row>
+    <row r="11" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="32"/>
       <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-    </row>
-    <row r="12" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+    </row>
+    <row r="12" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1330,57 +1350,57 @@
       <c r="C12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="27">
         <v>0.99580000000000002</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="27">
         <v>2.2679999999999999E-2</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="23">
         <v>0.98839999999999995</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="23">
         <v>3.8739999999999997E-2</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+    <row r="13" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
       <c r="B13" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-    </row>
-    <row r="14" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="32"/>
       <c r="B14" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-    </row>
-    <row r="15" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+    </row>
+    <row r="15" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1389,57 +1409,57 @@
       <c r="C15" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="27">
         <v>0.99590000000000001</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="27">
         <v>1.8380000000000001E-2</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="20" t="s">
+      <c r="I15" s="23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
+    <row r="16" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="28"/>
       <c r="B16" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-    </row>
-    <row r="17" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+    </row>
+    <row r="17" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
       <c r="B17" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-    </row>
-    <row r="18" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+    </row>
+    <row r="18" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1448,56 +1468,56 @@
       <c r="C18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="27">
         <v>0.98529999999999995</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="27">
         <v>3.7539999999999997E-2</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="H18" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="20" t="s">
+      <c r="I18" s="23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
+    <row r="19" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="28"/>
       <c r="B19" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-    </row>
-    <row r="20" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+    </row>
+    <row r="20" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="29"/>
       <c r="B20" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1505,7 +1525,7 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1513,7 +1533,7 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1521,7 +1541,7 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1529,7 +1549,7 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1539,6 +1559,44 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
@@ -1555,44 +1613,6 @@
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1607,43 +1627,43 @@
       <selection sqref="A1:I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="36" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="38"/>
-    </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="41"/>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="6" t="s">
         <v>102</v>
       </c>
@@ -1663,8 +1683,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
         <v>134</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1673,60 +1693,60 @@
       <c r="C3" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="27">
         <v>0.99480000000000002</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="27">
         <v>2.5829999999999999E-2</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="23">
         <v>0.98819999999999997</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="23">
         <v>3.8769999999999999E-2</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="23" t="s">
         <v>77</v>
       </c>
       <c r="J3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+    <row r="4" spans="1:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
       <c r="B4" s="5" t="s">
         <v>120</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-    </row>
-    <row r="5" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+    </row>
+    <row r="5" spans="1:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
       <c r="B5" s="5" t="s">
         <v>121</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-    </row>
-    <row r="6" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+    </row>
+    <row r="6" spans="1:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
         <v>135</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1735,60 +1755,60 @@
       <c r="C6" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="27">
         <v>0.99980000000000002</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="27">
         <v>4.5370000000000002E-3</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="23">
         <v>0.98780000000000001</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="23">
         <v>3.9660000000000001E-2</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="23" t="s">
         <v>81</v>
       </c>
       <c r="J6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+    <row r="7" spans="1:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
       <c r="B7" s="5" t="s">
         <v>123</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-    </row>
-    <row r="8" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+    </row>
+    <row r="8" spans="1:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="32"/>
       <c r="B8" s="5" t="s">
         <v>124</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-    </row>
-    <row r="9" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+    </row>
+    <row r="9" spans="1:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
         <v>136</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1797,60 +1817,60 @@
       <c r="C9" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="27">
         <v>0.99519999999999997</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="27">
         <v>1.992E-2</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="23">
         <v>0.99039999999999995</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="23">
         <v>2.6259999999999999E-2</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="23" t="s">
         <v>105</v>
       </c>
       <c r="J9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
+    <row r="10" spans="1:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
       <c r="B10" s="5" t="s">
         <v>126</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-    </row>
-    <row r="11" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+    </row>
+    <row r="11" spans="1:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
       <c r="B11" s="5" t="s">
         <v>127</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-    </row>
-    <row r="12" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+    </row>
+    <row r="12" spans="1:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
         <v>137</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1859,60 +1879,60 @@
       <c r="C12" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="27">
         <v>0.99270000000000003</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="27">
         <v>2.291E-2</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="23">
         <v>0.995</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="23">
         <v>2.019E-2</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="23" t="s">
         <v>65</v>
       </c>
       <c r="J12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
+    <row r="13" spans="1:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
       <c r="B13" s="5" t="s">
         <v>129</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-    </row>
-    <row r="14" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" spans="1:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
       <c r="B14" s="5" t="s">
         <v>130</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
         <v>116</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1921,65 +1941,87 @@
       <c r="C15" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="27">
         <v>0.98340000000000005</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="27">
         <v>3.9109999999999999E-2</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="20" t="s">
+      <c r="I15" s="23" t="s">
         <v>4</v>
       </c>
       <c r="J15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="28"/>
       <c r="B16" s="5" t="s">
         <v>132</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
       <c r="B17" s="5" t="s">
         <v>133</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="I12:I14"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="D6:D8"/>
@@ -1988,33 +2030,11 @@
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A6:A8"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="F3:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2029,40 +2049,40 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="36" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="38"/>
-    </row>
-    <row r="2" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="41"/>
+    </row>
+    <row r="2" spans="1:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="6" t="s">
         <v>102</v>
       </c>
@@ -2082,8 +2102,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -2092,45 +2112,45 @@
       <c r="C3" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="43">
         <v>0.99450000000000005</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="43">
         <v>0.98540000000000005</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="43" t="s">
         <v>70</v>
       </c>
       <c r="J3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41"/>
+    <row r="4" spans="1:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="44"/>
       <c r="B4" s="15" t="s">
         <v>68</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-    </row>
-    <row r="5" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+    </row>
+    <row r="5" spans="1:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -2139,45 +2159,45 @@
       <c r="C5" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="23">
         <v>0.98540000000000005</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="45" t="s">
         <v>92</v>
       </c>
       <c r="J5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
+    <row r="6" spans="1:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
       <c r="B6" s="10" t="s">
         <v>94</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-    </row>
-    <row r="7" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+    </row>
+    <row r="7" spans="1:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -2186,44 +2206,44 @@
       <c r="C7" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="27">
         <v>0.99450000000000005</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="23" t="s">
         <v>88</v>
       </c>
       <c r="J7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
+    <row r="8" spans="1:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
       <c r="B8" s="10" t="s">
         <v>96</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>98</v>
       </c>
@@ -2231,7 +2251,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>99</v>
       </c>
@@ -2250,17 +2270,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="F5:F6"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I7:I8"/>
@@ -2276,6 +2285,17 @@
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2285,311 +2305,311 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{959911B6-8118-467B-8966-D274265204EE}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
-    <col min="2" max="2" width="10.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="3"/>
+    <col min="2" max="2" width="10.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="46"/>
+      <c r="B1" s="50"/>
       <c r="C1" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49" t="s">
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-    </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="51"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="52" t="s">
+      <c r="D2" s="50"/>
+      <c r="E2" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="20" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="18">
         <v>10</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="18">
         <v>48.5</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="18">
         <v>4.8705999999999996</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="18">
         <v>0.72330000000000005</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="18">
         <v>9.8648000000000007</v>
       </c>
-      <c r="H3" s="45">
+      <c r="H3" s="18">
         <v>1.6074999999999999</v>
       </c>
-      <c r="I3" s="45">
+      <c r="I3" s="18">
         <v>9.4799999999999995E-2</v>
       </c>
-      <c r="J3" s="45">
+      <c r="J3" s="18">
         <v>3.2421000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="18">
         <v>10</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="18">
         <v>45.7</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="18">
         <v>3.0238999999999998</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="18">
         <v>0.16320000000000001</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="18">
         <v>6.7526000000000002</v>
       </c>
-      <c r="H4" s="45">
+      <c r="H4" s="18">
         <v>1.9151</v>
       </c>
-      <c r="I4" s="45">
+      <c r="I4" s="18">
         <v>7.1599999999999997E-2</v>
       </c>
-      <c r="J4" s="45">
+      <c r="J4" s="18">
         <v>4.6946000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
-      <c r="B5" s="48" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="18">
         <v>10</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="18">
         <v>41.5</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="18">
         <v>7.4481999999999999</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="18">
         <v>5.5566000000000004</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="18">
         <v>13.308400000000001</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="18">
         <v>0.68030000000000002</v>
       </c>
-      <c r="I5" s="45">
+      <c r="I5" s="18">
         <v>5.2200000000000003E-2</v>
       </c>
-      <c r="J5" s="45">
+      <c r="J5" s="18">
         <v>1.0546</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="47"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="48"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="18">
         <v>20</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="18">
         <v>41.5</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="18">
         <v>14.8028</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="18">
         <v>3.3656000000000001</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="18">
         <v>23.714700000000001</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="18">
         <v>2.8675999999999999</v>
       </c>
-      <c r="I6" s="45">
+      <c r="I6" s="18">
         <v>0.1263</v>
       </c>
-      <c r="J6" s="45">
+      <c r="J6" s="18">
         <v>3.5497999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="47" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="18">
         <v>10</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="18">
         <v>41.5</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="18">
         <v>4.5197081384539599</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="18">
         <v>3.9722004305122902</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="18">
         <v>11.7412109674933</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="18">
         <v>2.0417894891824799</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I7" s="18">
         <v>0.84442496918497401</v>
       </c>
-      <c r="J7" s="45">
+      <c r="J7" s="18">
         <v>3.58761452437188</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="48"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="18">
         <v>10</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="18">
         <v>45.7</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="18">
         <v>1.99920194837266</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="18">
         <v>0.89213700366721804</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="18">
         <v>4.6092079774300299</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="18">
         <v>0.89562322843932496</v>
       </c>
-      <c r="I8" s="45">
+      <c r="I8" s="18">
         <v>0.17904777063236799</v>
       </c>
-      <c r="J8" s="45">
+      <c r="J8" s="18">
         <v>1.8463910818920899</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="48"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="18">
         <v>10</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="18">
         <v>48</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="18">
         <v>0.84470560285347895</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="18">
         <v>0.23173900510265799</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="18">
         <v>1.95145372442261</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="18">
         <v>0.68178489628790195</v>
       </c>
-      <c r="I9" s="45">
+      <c r="I9" s="18">
         <v>0.150967387789747</v>
       </c>
-      <c r="J9" s="45">
+      <c r="J9" s="18">
         <v>2.0676835787835999</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
-      <c r="B10" s="50" t="s">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="48"/>
+      <c r="B10" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="18">
         <v>10</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="18">
         <v>51.8</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="18">
         <v>3.03222221811638</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="18">
         <v>4.4855531007687901</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="18">
         <v>5.5870357213666804</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="18">
         <v>1.4609329694573101</v>
       </c>
-      <c r="I10" s="45">
+      <c r="I10" s="18">
         <v>1.0412488414276799</v>
       </c>
-      <c r="J10" s="45">
+      <c r="J10" s="18">
         <v>2.7551515923112402</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2599,49 +2619,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F20C50-7E80-41CF-971C-9DF8CC7EC325}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52"/>
+      <c r="B1" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="52" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="53">
         <v>1.1900000000000001E-2</v>
       </c>
-      <c r="C2" s="44">
+      <c r="C2" s="54">
         <v>101740</v>
       </c>
-      <c r="D2" s="44">
+      <c r="D2" s="54">
         <v>10648</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="55" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="s">
         <v>149</v>
+      </c>
+      <c r="B3" s="53">
+        <v>-1.09E-2</v>
+      </c>
+      <c r="C3" s="54">
+        <v>102000</v>
+      </c>
+      <c r="D3" s="54">
+        <v>10600</v>
+      </c>
+      <c r="E3" s="53">
+        <v>0.123</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>